--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H2">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I2">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J2">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>25.16985966725333</v>
+        <v>0.05529753293777778</v>
       </c>
       <c r="R2">
-        <v>226.52873700528</v>
+        <v>0.49767779644</v>
       </c>
       <c r="S2">
-        <v>0.01333214515497709</v>
+        <v>0.0001196535812947071</v>
       </c>
       <c r="T2">
-        <v>0.01333214515497709</v>
+        <v>0.0001196535812947071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H3">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I3">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J3">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>1229.913257801921</v>
+        <v>13.73451507809333</v>
       </c>
       <c r="R3">
-        <v>11069.21932021729</v>
+        <v>123.61063570284</v>
       </c>
       <c r="S3">
-        <v>0.6514689512702929</v>
+        <v>0.02971893734010158</v>
       </c>
       <c r="T3">
-        <v>0.6514689512702929</v>
+        <v>0.02971893734010157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H4">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I4">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J4">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>180.1009965071987</v>
+        <v>2.011198624306667</v>
       </c>
       <c r="R4">
-        <v>1620.908968564788</v>
+        <v>18.10078761876</v>
       </c>
       <c r="S4">
-        <v>0.09539714006089327</v>
+        <v>0.004351859934946161</v>
       </c>
       <c r="T4">
-        <v>0.09539714006089325</v>
+        <v>0.00435185993494616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>2.72815742576</v>
+        <v>0.5367295935906667</v>
       </c>
       <c r="R5">
-        <v>24.55341683184</v>
+        <v>4.830566342316001</v>
       </c>
       <c r="S5">
-        <v>0.001445069272800999</v>
+        <v>0.001161383060836363</v>
       </c>
       <c r="T5">
-        <v>0.001445069272800998</v>
+        <v>0.001161383060836362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>133.310118994364</v>
@@ -818,10 +818,10 @@
         <v>1199.791070949276</v>
       </c>
       <c r="S6">
-        <v>0.07061262480427961</v>
+        <v>0.2884583147397864</v>
       </c>
       <c r="T6">
-        <v>0.0706126248042796</v>
+        <v>0.2884583147397863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
         <v>19.521120796996</v>
@@ -880,10 +880,10 @@
         <v>175.690087172964</v>
       </c>
       <c r="S7">
-        <v>0.01034008212576553</v>
+        <v>0.04224007636788117</v>
       </c>
       <c r="T7">
-        <v>0.01034008212576552</v>
+        <v>0.04224007636788116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J8">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>5.211583086533333</v>
+        <v>1.025311386207778</v>
       </c>
       <c r="R8">
-        <v>46.9042477788</v>
+        <v>9.227802475870002</v>
       </c>
       <c r="S8">
-        <v>0.002760507333590077</v>
+        <v>0.002218583231191278</v>
       </c>
       <c r="T8">
-        <v>0.002760507333590077</v>
+        <v>0.002218583231191278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J9">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
         <v>254.6615363375633</v>
@@ -1004,10 +1004,10 @@
         <v>2291.95382703807</v>
       </c>
       <c r="S9">
-        <v>0.1348908819010657</v>
+        <v>0.5510402222661287</v>
       </c>
       <c r="T9">
-        <v>0.1348908819010658</v>
+        <v>0.5510402222661286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J10">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
-        <v>37.29108225763667</v>
+        <v>37.29108225763666</v>
       </c>
       <c r="R10">
-        <v>335.6197403187301</v>
+        <v>335.61974031873</v>
       </c>
       <c r="S10">
-        <v>0.01975259807633472</v>
+        <v>0.08069096947783383</v>
       </c>
       <c r="T10">
-        <v>0.01975259807633471</v>
+        <v>0.08069096947783383</v>
       </c>
     </row>
   </sheetData>
